--- a/data/trans_orig/DC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>285502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>259129</v>
+        <v>258037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312026</v>
+        <v>313334</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2767234269103395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2511613596124894</v>
+        <v>0.250103106140675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3024323808275984</v>
+        <v>0.3036999161363823</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>445</v>
@@ -765,19 +765,19 @@
         <v>454556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>419406</v>
+        <v>422403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>488937</v>
+        <v>491522</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3456399595260369</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3189128937673017</v>
+        <v>0.3211917809694392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3717830167300207</v>
+        <v>0.3737485672312807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>738</v>
@@ -786,19 +786,19 @@
         <v>740057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>694064</v>
+        <v>694117</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>786656</v>
+        <v>785436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3153426670231286</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2957446827319801</v>
+        <v>0.2957673173243009</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3351987789421912</v>
+        <v>0.334678824091739</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>746221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>719697</v>
+        <v>718389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>772594</v>
+        <v>773686</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7232765730896605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6975676191724016</v>
+        <v>0.6963000838636177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7488386403875106</v>
+        <v>0.749896893859325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>846</v>
@@ -836,19 +836,19 @@
         <v>860557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>826176</v>
+        <v>823591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>895707</v>
+        <v>892710</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.654360040473963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6282169832699791</v>
+        <v>0.6262514327687192</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6810871062326982</v>
+        <v>0.6788082190305607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1591</v>
@@ -857,19 +857,19 @@
         <v>1606778</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1560179</v>
+        <v>1561399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1652771</v>
+        <v>1652718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6846573329768715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6648012210578086</v>
+        <v>0.6653211759082609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7042553172680198</v>
+        <v>0.7042326826756986</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>219323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194637</v>
+        <v>193307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>247455</v>
+        <v>249644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1295155384228086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1149376197564621</v>
+        <v>0.1141524202649051</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1461279438043162</v>
+        <v>0.1474205109338887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>379</v>
@@ -982,19 +982,19 @@
         <v>380610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>349391</v>
+        <v>349440</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>417616</v>
+        <v>418122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2397283793740502</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2200646894511339</v>
+        <v>0.2200957602013414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2630364963216636</v>
+        <v>0.2633549497928033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>598</v>
@@ -1003,19 +1003,19 @@
         <v>599934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>558727</v>
+        <v>559298</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>643853</v>
+        <v>645942</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1828460449754605</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1702872607825335</v>
+        <v>0.1704612874928292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.196231591355036</v>
+        <v>0.1968682697867405</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1474090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1445958</v>
+        <v>1443769</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1498776</v>
+        <v>1500106</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8704844615771914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8538720561956837</v>
+        <v>0.8525794890661114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8850623802435379</v>
+        <v>0.8858475797350949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1175</v>
@@ -1053,19 +1053,19 @@
         <v>1207063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1170057</v>
+        <v>1169551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1238282</v>
+        <v>1238233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7602716206259498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7369635036783364</v>
+        <v>0.7366450502071967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7799353105488661</v>
+        <v>0.7799042397986587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2605</v>
@@ -1074,19 +1074,19 @@
         <v>2681152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2637233</v>
+        <v>2635144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2722359</v>
+        <v>2721788</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8171539550245396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8037684086449638</v>
+        <v>0.80313173021326</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8297127392174665</v>
+        <v>0.8295387125071709</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>68907</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53485</v>
+        <v>54608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84896</v>
+        <v>87215</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1249663645686259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09699641033482166</v>
+        <v>0.09903345618299761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1539628961509259</v>
+        <v>0.1581677050199493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -1199,19 +1199,19 @@
         <v>106431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88390</v>
+        <v>88273</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125606</v>
+        <v>125335</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2234008413380476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1855324656154045</v>
+        <v>0.1852881378677087</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2636493880027899</v>
+        <v>0.263080608658282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1220,19 +1220,19 @@
         <v>175338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152499</v>
+        <v>152446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>201529</v>
+        <v>202123</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1705923980129065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1483709362873386</v>
+        <v>0.1483200627192226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1960742814459453</v>
+        <v>0.1966517808886039</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>482501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>466512</v>
+        <v>464193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>497923</v>
+        <v>496800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8750336354313741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8460371038490742</v>
+        <v>0.8418322949800506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9030035896651784</v>
+        <v>0.9009665438170023</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>351</v>
@@ -1270,19 +1270,19 @@
         <v>369981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>350806</v>
+        <v>351077</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>388022</v>
+        <v>388139</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7765991586619524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7363506119972105</v>
+        <v>0.7369193913417181</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8144675343845955</v>
+        <v>0.8147118621322914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>809</v>
@@ -1291,19 +1291,19 @@
         <v>852482</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>826291</v>
+        <v>825697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>875321</v>
+        <v>875374</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8294076019870935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8039257185540547</v>
+        <v>0.8033482191113961</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8516290637126614</v>
+        <v>0.8516799372807774</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>573733</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1751029989024037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>925</v>
@@ -1416,19 +1416,19 @@
         <v>941596</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2786450258329519</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1506</v>
@@ -1437,19 +1437,19 @@
         <v>1515329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2276724961502341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2702810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2656333</v>
+        <v>2656711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2746102</v>
+        <v>2744457</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8248970010975962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8107121394920738</v>
+        <v>0.8108275725584642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8381094793079711</v>
+        <v>0.8376076146997313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2372</v>
@@ -1487,19 +1487,19 @@
         <v>2437601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2388255</v>
+        <v>2385061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2495059</v>
+        <v>2487393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7213549741670481</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7067521447140668</v>
+        <v>0.7058070581559426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7383586828488152</v>
+        <v>0.7360900103789972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5005</v>
@@ -1508,19 +1508,19 @@
         <v>5140412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5065439</v>
+        <v>5073774</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5206906</v>
+        <v>5210298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7723275038497659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7610631482819139</v>
+        <v>0.762315425460822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.782317981070945</v>
+        <v>0.7828276899981977</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>170496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146490</v>
+        <v>148092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193623</v>
+        <v>193689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1749315597678595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1503009509416414</v>
+        <v>0.1519445291632747</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1986607312440172</v>
+        <v>0.1987285482350434</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>390</v>
@@ -1872,19 +1872,19 @@
         <v>416346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>383694</v>
+        <v>383951</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>450984</v>
+        <v>451553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3112177142011147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2868106592789784</v>
+        <v>0.2870025990397267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3371092872207994</v>
+        <v>0.3375350673906417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>550</v>
@@ -1893,19 +1893,19 @@
         <v>586842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>547288</v>
+        <v>548658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>631523</v>
+        <v>632016</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2537760623960023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2366712351279665</v>
+        <v>0.237263621511578</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2730980943084848</v>
+        <v>0.2733115194840829</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>804147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>781020</v>
+        <v>780954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>828153</v>
+        <v>826551</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8250684402321405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8013392687559827</v>
+        <v>0.8012714517649565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8496990490583586</v>
+        <v>0.8480554708367254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>857</v>
@@ -1943,19 +1943,19 @@
         <v>921451</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>886813</v>
+        <v>886244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>954103</v>
+        <v>953846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6887822857988853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6628907127792006</v>
+        <v>0.6624649326093582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7131893407210216</v>
+        <v>0.7129974009602733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1605</v>
@@ -1964,19 +1964,19 @@
         <v>1725598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1680917</v>
+        <v>1680424</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1765152</v>
+        <v>1763782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7462239376039977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7269019056915151</v>
+        <v>0.7266884805159171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7633287648720334</v>
+        <v>0.7627363784884221</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>158297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135199</v>
+        <v>134761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188432</v>
+        <v>182835</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08060129774412855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06884026046859358</v>
+        <v>0.06861700385225437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09594489833351817</v>
+        <v>0.0930954366504395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>319</v>
@@ -2089,19 +2089,19 @@
         <v>345075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>315555</v>
+        <v>311230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>381278</v>
+        <v>379542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1963106354618273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1795167364074292</v>
+        <v>0.1770562201249825</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.216905715911391</v>
+        <v>0.2159183194465506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>468</v>
@@ -2110,19 +2110,19 @@
         <v>503373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>460579</v>
+        <v>462002</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>548822</v>
+        <v>548213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1352512961229583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1237530493605023</v>
+        <v>0.124135463655113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1474629304488573</v>
+        <v>0.1472995153709137</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1805660</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1775525</v>
+        <v>1781122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1828758</v>
+        <v>1829196</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9193987022558714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.904055101666482</v>
+        <v>0.9069045633495606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9311597395314065</v>
+        <v>0.9313829961477457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1316</v>
@@ -2160,19 +2160,19 @@
         <v>1412728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1376525</v>
+        <v>1378261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1442248</v>
+        <v>1446573</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8036893645381727</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7830942840886093</v>
+        <v>0.7840816805534496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8204832635925707</v>
+        <v>0.8229437798750178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3023</v>
@@ -2181,19 +2181,19 @@
         <v>3218387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3172938</v>
+        <v>3173547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3261181</v>
+        <v>3259758</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8647487038770417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8525370695511427</v>
+        <v>0.8527004846290864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8762469506394976</v>
+        <v>0.8758645363448874</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>24758</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15536</v>
+        <v>15173</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36648</v>
+        <v>35928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05145233085886253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03228753897603719</v>
+        <v>0.03153261212238868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0761626519582787</v>
+        <v>0.07466529622167405</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -2306,19 +2306,19 @@
         <v>86861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70801</v>
+        <v>70681</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105403</v>
+        <v>105595</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.189392493069903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1543736715296941</v>
+        <v>0.1541136318642531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.229820440663155</v>
+        <v>0.2302388796157926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -2327,19 +2327,19 @@
         <v>111619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92158</v>
+        <v>93650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134298</v>
+        <v>134656</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1187675080032293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09806000845324052</v>
+        <v>0.09964709585352231</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1428981689288964</v>
+        <v>0.1432792729132172</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>456423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444533</v>
+        <v>445253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465645</v>
+        <v>466008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9485476691411374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9238373480417214</v>
+        <v>0.9253347037783261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9677124610239629</v>
+        <v>0.9684673878776113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>334</v>
@@ -2377,19 +2377,19 @@
         <v>371770</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>353228</v>
+        <v>353036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>387830</v>
+        <v>387950</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.810607506930097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.770179559336845</v>
+        <v>0.7697611203842075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8456263284703059</v>
+        <v>0.8458863681357471</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>750</v>
@@ -2398,19 +2398,19 @@
         <v>828194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>805515</v>
+        <v>805157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>847655</v>
+        <v>846163</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8812324919967707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8571018310711036</v>
+        <v>0.8567207270867828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9019399915467594</v>
+        <v>0.9003529041464777</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>353551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317638</v>
+        <v>316551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>389748</v>
+        <v>388877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1033841512079565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0928826450864035</v>
+        <v>0.09256464926712311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1139685821170906</v>
+        <v>0.1137139362435771</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>787</v>
@@ -2523,19 +2523,19 @@
         <v>848283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>796600</v>
+        <v>792954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>899561</v>
+        <v>896905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2386684473138806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2241272035757983</v>
+        <v>0.2231014905042583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2530957943424131</v>
+        <v>0.2523485561312336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1118</v>
@@ -2544,19 +2544,19 @@
         <v>1201834</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1138841</v>
+        <v>1135375</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1268669</v>
+        <v>1262845</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1723303378893871</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1632977968223991</v>
+        <v>0.1628008373719223</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1819138597001202</v>
+        <v>0.1810787522026914</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3066231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3030034</v>
+        <v>3030905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3102144</v>
+        <v>3103231</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8966158487920435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8860314178829094</v>
+        <v>0.8862860637564229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9071173549135965</v>
+        <v>0.907435350732877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2507</v>
@@ -2594,19 +2594,19 @@
         <v>2705947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2654669</v>
+        <v>2657325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2757630</v>
+        <v>2761276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7613315526861194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7469042056575869</v>
+        <v>0.7476514438687664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7758727964242018</v>
+        <v>0.7768985094957419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5378</v>
@@ -2615,19 +2615,19 @@
         <v>5772178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5705343</v>
+        <v>5711167</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5835171</v>
+        <v>5838637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8276696621106129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8180861402998798</v>
+        <v>0.8189212477973086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8367022031776008</v>
+        <v>0.8371991626280776</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>117686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99323</v>
+        <v>98043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138536</v>
+        <v>136423</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1560101320258022</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1316676670636879</v>
+        <v>0.1299711962459212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1836496905844077</v>
+        <v>0.1808487852131938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>230</v>
@@ -2979,19 +2979,19 @@
         <v>261480</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231077</v>
+        <v>228126</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>291239</v>
+        <v>291954</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2628833873880649</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2323180561748148</v>
+        <v>0.2293508759619311</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2928030295440968</v>
+        <v>0.293521786701248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>351</v>
@@ -3000,19 +3000,19 @@
         <v>379165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>340237</v>
+        <v>343088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>413873</v>
+        <v>415423</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2167889474604407</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1945312904506472</v>
+        <v>0.1961617109912769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2366330347343364</v>
+        <v>0.2375192673845088</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>636661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>615811</v>
+        <v>617924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>655024</v>
+        <v>656304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8439898679741978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8163503094155923</v>
+        <v>0.8191512147868062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8683323329363123</v>
+        <v>0.8700288037540788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -3050,19 +3050,19 @@
         <v>733180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>703421</v>
+        <v>702706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>763583</v>
+        <v>766534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7371166126119352</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.707196970455903</v>
+        <v>0.7064782132987525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7676819438251851</v>
+        <v>0.7706491240380692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1303</v>
@@ -3071,19 +3071,19 @@
         <v>1369842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1335134</v>
+        <v>1333584</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1408770</v>
+        <v>1405919</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7832110525395594</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7633669652656636</v>
+        <v>0.7624807326154911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8054687095493528</v>
+        <v>0.803838289008723</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>159221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133455</v>
+        <v>135471</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>184756</v>
+        <v>184400</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07668204134042021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06427271700779436</v>
+        <v>0.06524362224329258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08897943204197054</v>
+        <v>0.0888082488551631</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>294</v>
@@ -3196,19 +3196,19 @@
         <v>316480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>285171</v>
+        <v>280497</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>354727</v>
+        <v>349548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1591713707985802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.143424457460756</v>
+        <v>0.1410736239396295</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1784074162089701</v>
+        <v>0.1758023293860941</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>442</v>
@@ -3217,19 +3217,19 @@
         <v>475702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>436660</v>
+        <v>433356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>519106</v>
+        <v>518812</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.117032901956869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1074276958181551</v>
+        <v>0.1066149898236399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1277113541205892</v>
+        <v>0.127639019577529</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1917164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1891629</v>
+        <v>1891985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1942930</v>
+        <v>1940914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9233179586595798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9110205679580297</v>
+        <v>0.9111917511448371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9357272829922056</v>
+        <v>0.9347563777567075</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1614</v>
@@ -3267,19 +3267,19 @@
         <v>1671820</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1633573</v>
+        <v>1638752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1703129</v>
+        <v>1707803</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8408286292014199</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.82159258379103</v>
+        <v>0.8241976706139057</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8565755425392442</v>
+        <v>0.8589263760603703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3418</v>
@@ -3288,19 +3288,19 @@
         <v>3588983</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3545579</v>
+        <v>3545873</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3628025</v>
+        <v>3631329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.882967098043131</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8722886458794106</v>
+        <v>0.8723609804224709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8925723041818449</v>
+        <v>0.8933850101763601</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>44784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31495</v>
+        <v>32210</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59630</v>
+        <v>60107</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08188921347322448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05759002310256214</v>
+        <v>0.05889744551497272</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1090359663191855</v>
+        <v>0.109907192767409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3413,19 +3413,19 @@
         <v>72181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57701</v>
+        <v>56995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90328</v>
+        <v>89983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.131444532488376</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1050760447962109</v>
+        <v>0.1037901616080881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1644890567694745</v>
+        <v>0.163861812678441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -3434,19 +3434,19 @@
         <v>116966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96950</v>
+        <v>95447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138866</v>
+        <v>137895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.106717831957903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08845590034097067</v>
+        <v>0.08708462775806612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.12669940588613</v>
+        <v>0.1258134886979238</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>502102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>487256</v>
+        <v>486779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515391</v>
+        <v>514676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9181107865267756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8909640336808144</v>
+        <v>0.8900928072325909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9424099768974374</v>
+        <v>0.9411025544850272</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>457</v>
@@ -3484,19 +3484,19 @@
         <v>476959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>458812</v>
+        <v>459157</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491439</v>
+        <v>492145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.868555467511624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8355109432305254</v>
+        <v>0.836138187321559</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.894923955203789</v>
+        <v>0.8962098383919119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>920</v>
@@ -3505,19 +3505,19 @@
         <v>979061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>957161</v>
+        <v>958132</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>999077</v>
+        <v>1000580</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8932821680420969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.87330059411387</v>
+        <v>0.8741865113020761</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9115440996590293</v>
+        <v>0.9129153722419339</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>321691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>288376</v>
+        <v>287210</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>358187</v>
+        <v>355520</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09524205100093092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08537836943668668</v>
+        <v>0.08503339401429698</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1060473074350896</v>
+        <v>0.1052575846233555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>593</v>
@@ -3630,19 +3630,19 @@
         <v>650141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>603568</v>
+        <v>606390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>696793</v>
+        <v>704000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1840665530322257</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1708806605420764</v>
+        <v>0.1716796385746892</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1972744361476038</v>
+        <v>0.1993147470159421</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>900</v>
@@ -3651,19 +3651,19 @@
         <v>971833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>912911</v>
+        <v>919012</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1030360</v>
+        <v>1034537</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1406472400040466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1321198422673265</v>
+        <v>0.1330028257614704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1491174827411686</v>
+        <v>0.1497220526692346</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3055927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3019431</v>
+        <v>3022098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3089242</v>
+        <v>3090408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.904757948999069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8939526925649104</v>
+        <v>0.8947424153766445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9146216305633134</v>
+        <v>0.914966605985703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2733</v>
@@ -3701,19 +3701,19 @@
         <v>2881959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2835307</v>
+        <v>2828100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2928532</v>
+        <v>2925710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8159334469677743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8027255638523962</v>
+        <v>0.8006852529840579</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8291193394579237</v>
+        <v>0.828320361425311</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5641</v>
@@ -3722,19 +3722,19 @@
         <v>5937885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5879358</v>
+        <v>5875181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5996807</v>
+        <v>5990706</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8593527599959534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8508825172588325</v>
+        <v>0.8502779473307654</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8678801577326736</v>
+        <v>0.8669971742385296</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>190294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169366</v>
+        <v>170054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>210967</v>
+        <v>212575</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3289275022014826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2927536094774625</v>
+        <v>0.2939428100385587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.364661440151467</v>
+        <v>0.3674401852120539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>807</v>
@@ -4086,19 +4086,19 @@
         <v>452606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>429744</v>
+        <v>428942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>474844</v>
+        <v>474678</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5505906826704465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5227791480312798</v>
+        <v>0.5218033333244256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5776421653728776</v>
+        <v>0.5774406371374075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1062</v>
@@ -4107,19 +4107,19 @@
         <v>642900</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>611054</v>
+        <v>610191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>675231</v>
+        <v>675032</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4590287335539788</v>
+        <v>0.4590287335539787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4362903700056573</v>
+        <v>0.4356744517899387</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4821129272799685</v>
+        <v>0.4819703947154974</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>388235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>367562</v>
+        <v>365954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409163</v>
+        <v>408475</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6710724977985174</v>
+        <v>0.6710724977985173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6353385598485328</v>
+        <v>0.632559814787946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7072463905225375</v>
+        <v>0.7060571899614413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -4157,19 +4157,19 @@
         <v>369432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>347194</v>
+        <v>347360</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>392294</v>
+        <v>393096</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4494093173295535</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4223578346271223</v>
+        <v>0.4225593628625925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4772208519687202</v>
+        <v>0.4781966666755744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1056</v>
@@ -4178,19 +4178,19 @@
         <v>757667</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>725336</v>
+        <v>725535</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>789513</v>
+        <v>790376</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5409712664460213</v>
+        <v>0.5409712664460212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5178870727200319</v>
+        <v>0.5180296052845028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5637096299943428</v>
+        <v>0.5643255482100615</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>445924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>408118</v>
+        <v>409724</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>490584</v>
+        <v>489823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1999150013442076</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1829661162670252</v>
+        <v>0.1836861461001844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2199370886797724</v>
+        <v>0.219596027046059</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1059</v>
@@ -4303,19 +4303,19 @@
         <v>747582</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>707124</v>
+        <v>706231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>791353</v>
+        <v>790143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3442870408548435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3256546714893466</v>
+        <v>0.3252434763706952</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3644450060395859</v>
+        <v>0.3638878186812338</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1509</v>
@@ -4324,19 +4324,19 @@
         <v>1193506</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1133477</v>
+        <v>1132374</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1251200</v>
+        <v>1249259</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2711306458509872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2574936944367051</v>
+        <v>0.257243129404105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.284237075470566</v>
+        <v>0.2837961838482365</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1784642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1739982</v>
+        <v>1740743</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1822448</v>
+        <v>1820842</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8000849986557925</v>
+        <v>0.8000849986557924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7800629113202276</v>
+        <v>0.7804039729539409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8170338837329749</v>
+        <v>0.8163138538998153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1862</v>
@@ -4374,19 +4374,19 @@
         <v>1423810</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1380039</v>
+        <v>1381249</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1464268</v>
+        <v>1465161</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6557129591451566</v>
+        <v>0.6557129591451564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6355549939604143</v>
+        <v>0.6361121813187661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6743453285106534</v>
+        <v>0.6747565236293048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3404</v>
@@ -4395,19 +4395,19 @@
         <v>3208453</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3150759</v>
+        <v>3152700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3268482</v>
+        <v>3269585</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7288693541490127</v>
+        <v>0.7288693541490128</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7157629245294339</v>
+        <v>0.7162038161517635</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7425063055632948</v>
+        <v>0.7427568705958949</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>116920</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98368</v>
+        <v>99123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138261</v>
+        <v>138604</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1643083320932652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1382381261997734</v>
+        <v>0.1392989595021666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1942995712910541</v>
+        <v>0.1947815074231946</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>335</v>
@@ -4520,19 +4520,19 @@
         <v>246618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224114</v>
+        <v>223214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>270785</v>
+        <v>268222</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3355912350218428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3049676822896142</v>
+        <v>0.3037430449568267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3684770243191094</v>
+        <v>0.3649891033138272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>457</v>
@@ -4541,19 +4541,19 @@
         <v>363538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>329055</v>
+        <v>331958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>392072</v>
+        <v>398055</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2513287396655057</v>
+        <v>0.2513287396655056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.227489512257139</v>
+        <v>0.2294965350413178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2710556190259714</v>
+        <v>0.2751915752180213</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>594667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573326</v>
+        <v>572983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613219</v>
+        <v>612464</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8356916679067349</v>
+        <v>0.8356916679067348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8057004287089462</v>
+        <v>0.8052184925768052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8617618738002265</v>
+        <v>0.8607010404978331</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>669</v>
@@ -4591,19 +4591,19 @@
         <v>488259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>464092</v>
+        <v>466655</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>510763</v>
+        <v>511663</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6644087649781569</v>
+        <v>0.664408764978157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6315229756808906</v>
+        <v>0.6350108966861726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6950323177103858</v>
+        <v>0.6962569550431732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1228</v>
@@ -4612,19 +4612,19 @@
         <v>1082926</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054392</v>
+        <v>1048409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1117409</v>
+        <v>1114506</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7486712603344945</v>
+        <v>0.7486712603344942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7289443809740288</v>
+        <v>0.7248084247819786</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.772510487742861</v>
+        <v>0.7705034649586823</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>753138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>701631</v>
+        <v>704422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>809145</v>
+        <v>803457</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2139180471222535</v>
+        <v>0.2139180471222536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1992883505142336</v>
+        <v>0.2000810148817291</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2298262621311045</v>
+        <v>0.2282105437592134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2201</v>
@@ -4737,19 +4737,19 @@
         <v>1446807</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1393619</v>
+        <v>1397461</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1502711</v>
+        <v>1500984</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3880600036250942</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3737940681500769</v>
+        <v>0.3748246083830086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4030545687180497</v>
+        <v>0.4025912326035296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3028</v>
@@ -4758,19 +4758,19 @@
         <v>2199945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2125416</v>
+        <v>2125423</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2270633</v>
+        <v>2278193</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3034828991981664</v>
+        <v>0.3034828991981665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2932017232817064</v>
+        <v>0.2932025785050247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3132344022903217</v>
+        <v>0.3142772748815599</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2767545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2711538</v>
+        <v>2717226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2819052</v>
+        <v>2816261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7860819528777463</v>
+        <v>0.7860819528777465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7701737378688953</v>
+        <v>0.7717894562407868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8007116494857662</v>
+        <v>0.7999189851182716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3151</v>
@@ -4808,19 +4808,19 @@
         <v>2281500</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2225596</v>
+        <v>2227323</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2334688</v>
+        <v>2330846</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6119399963749057</v>
+        <v>0.6119399963749058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5969454312819503</v>
+        <v>0.5974087673964703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6262059318499235</v>
+        <v>0.6251753916169913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5688</v>
@@ -4829,19 +4829,19 @@
         <v>5049045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4978357</v>
+        <v>4970797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5123574</v>
+        <v>5123567</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6965171008018335</v>
+        <v>0.6965171008018337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6867655977096784</v>
+        <v>0.6857227251184402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7067982767182935</v>
+        <v>0.7067974214949759</v>
       </c>
     </row>
     <row r="15">
